--- a/omc_basic_gst_config/data/account.tax.xlsx
+++ b/omc_basic_gst_config/data/account.tax.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\personal\OneDrive\demo_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\git\odoo\basic_addons\omc_basic_gst_config\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -267,9 +267,6 @@
     <t>SR</t>
   </si>
   <si>
-    <t>_account_tax_imgds</t>
-  </si>
-  <si>
     <t>_account_tax_zrl</t>
   </si>
   <si>
@@ -541,6 +538,9 @@
   </si>
   <si>
     <t>_account_account_210201</t>
+  </si>
+  <si>
+    <t>my_imported_goods.IMGDS_Input_tax_account</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1352,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1543,10 +1543,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1564,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O3">
         <v>-1</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R3">
         <v>-1</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1614,10 +1614,10 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1635,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O4">
         <v>-1</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R4">
         <v>-1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -1685,10 +1685,10 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1706,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O5">
         <v>-1</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R5">
         <v>-1</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -1756,10 +1756,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6">
         <v>0.06</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O6">
         <v>-1</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R6">
         <v>-1</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1827,10 +1827,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1848,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O7">
         <v>-1</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R7">
         <v>-1</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -1898,10 +1898,10 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1919,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O8">
         <v>-1</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R8">
         <v>-1</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -1969,10 +1969,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1990,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O9">
         <v>-1</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R9">
         <v>-1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -2040,10 +2040,10 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2061,19 +2061,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O10">
         <v>-1</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R10">
         <v>-1</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -2111,10 +2111,10 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11">
         <v>0.06</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O11">
         <v>-1</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R11">
         <v>-1</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -2182,10 +2182,10 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12">
         <v>0.06</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O12">
         <v>-1</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R12">
         <v>-1</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -2253,10 +2253,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2274,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O13">
         <v>-1</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R13">
         <v>-1</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -2324,10 +2324,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14">
         <v>0.06</v>
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O14">
         <v>-1</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R14">
         <v>-1</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -2395,10 +2395,10 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2416,19 +2416,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O15">
         <v>-1</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R15">
         <v>-1</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -2466,10 +2466,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2487,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O16">
         <v>-1</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R16">
         <v>-1</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -2537,10 +2537,10 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2558,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O17">
         <v>-1</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R17">
         <v>-1</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -2608,10 +2608,10 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2629,19 +2629,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O18">
         <v>-1</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R18">
         <v>-1</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -2679,10 +2679,10 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19">
         <v>0.06</v>
@@ -2700,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O19">
         <v>-1</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R19">
         <v>-1</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -2750,10 +2750,10 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20">
         <v>0.06</v>
@@ -2771,19 +2771,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O20">
         <v>-1</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R20">
         <v>-1</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -2821,10 +2821,10 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21">
         <v>0.06</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O21">
         <v>-1</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R21">
         <v>-1</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -2892,10 +2892,10 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2913,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O22">
         <v>-1</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R22">
         <v>-1</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -2963,10 +2963,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2984,19 +2984,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O23">
         <v>-1</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R23">
         <v>-1</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -3034,10 +3034,10 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3055,19 +3055,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O24">
         <v>-1</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R24">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>79</v>
@@ -3105,10 +3105,10 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25">
         <v>0.06</v>
@@ -3126,19 +3126,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O25">
         <v>-1</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R25">
         <v>-1</v>
